--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_8_29.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_8_29.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>947499.6226745631</v>
+        <v>984027.5951196412</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18142616.70954774</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2060125.517083134</v>
+        <v>278692.0725916867</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6764217.037249522</v>
+        <v>7381071.178972602</v>
       </c>
     </row>
     <row r="11">
@@ -659,19 +661,19 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>38.52281350842403</v>
       </c>
       <c r="F2" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>204.0608407524248</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
@@ -707,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>4.203262463343094</v>
@@ -814,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>122.9229677259524</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
@@ -835,7 +837,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>40.61929845517023</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
@@ -883,7 +885,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>206.2745019997408</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
         <v>423.5887552948843</v>
@@ -911,7 +913,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -947,10 +949,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>32.36127543482664</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1051,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>135.9608298160547</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
@@ -1117,7 +1119,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>237.8056840909994</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -1130,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>104.5153960206944</v>
       </c>
       <c r="D8" t="n">
         <v>31.5506869772999</v>
@@ -1142,16 +1144,16 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>390.6503168393919</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1294,22 +1296,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>39.57637241135509</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1351,7 +1353,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>46.45303019605558</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1376,19 +1378,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>321.3124667350694</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791316482</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800241</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="12">
@@ -1537,13 +1539,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>54.49360828358984</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>35.34780583513513</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1607,25 +1609,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.412621479131435</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.8153550780014</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -1664,16 +1666,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>358.990780565513</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>145.1684703409017</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="15">
@@ -1768,10 +1770,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
@@ -1780,10 +1782,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>124.0599116349192</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1828,7 +1830,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>82.14201637551416</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1901,13 +1903,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655127</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864836</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -2002,7 +2004,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>170.8360944016117</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
@@ -2014,10 +2016,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>3.139541480022138</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>148.8597651552951</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2062,7 +2064,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
@@ -2093,13 +2095,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629699</v>
       </c>
       <c r="H20" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2254,10 +2256,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>56.72042565247744</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2296,7 +2298,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2491,10 +2493,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2542,7 +2544,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>16.92574903169062</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -2725,7 +2727,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>3.139541480022588</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2962,10 +2964,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3010,7 +3012,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>148.8597651552994</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
@@ -3205,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
-        <v>16.05512456153178</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
         <v>275.6486707394257</v>
@@ -3272,7 +3274,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932887</v>
       </c>
       <c r="F35" t="n">
         <v>423.5887552948843</v>
@@ -3433,7 +3435,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>35.34780583513513</v>
       </c>
       <c r="G37" t="n">
         <v>163.9353622244306</v>
@@ -3472,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3673,13 +3675,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>43.48898701015406</v>
       </c>
       <c r="H40" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3740,16 +3742,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948859</v>
       </c>
       <c r="G41" t="n">
         <v>397.3838530629687</v>
@@ -3758,7 +3760,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791308604</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>220.6081083458783</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
@@ -3895,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>135.1077460700517</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
@@ -3913,10 +3915,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>157.6489550149833</v>
@@ -3955,7 +3957,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>144.4937753855477</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3980,22 +3982,22 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791307478</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800294</v>
       </c>
       <c r="T44" t="n">
         <v>217.8665548556918</v>
@@ -4040,7 +4042,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>145.5810918200345</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -4150,7 +4152,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,10 +4185,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>101.7706336613763</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
         <v>275.6486707394257</v>
@@ -4201,7 +4203,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>64.34965323462492</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1880.724249858583</v>
+        <v>1250.721030006719</v>
       </c>
       <c r="C2" t="n">
-        <v>1442.581777042006</v>
+        <v>822.1393557439876</v>
       </c>
       <c r="D2" t="n">
-        <v>1410.712396256855</v>
+        <v>790.2699749588362</v>
       </c>
       <c r="E2" t="n">
-        <v>976.9376514151502</v>
+        <v>751.3580421220443</v>
       </c>
       <c r="F2" t="n">
-        <v>549.070221824358</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="G2" t="n">
-        <v>342.9481604582723</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H2" t="n">
-        <v>53.81800590148855</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I2" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>53.40121652862856</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>53.40121652862856</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L2" t="n">
-        <v>714.2412710704069</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="M2" t="n">
-        <v>1375.081325612185</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="N2" t="n">
-        <v>2035.921380153963</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="O2" t="n">
-        <v>2500.906761678371</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P2" t="n">
-        <v>2500.906761678371</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q2" t="n">
-        <v>2500.906761678371</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R2" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>2586.408952615265</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>2586.408952615265</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>2327.186649932281</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>2327.186649932281</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W2" t="n">
-        <v>1922.331195343315</v>
+        <v>1696.368379531855</v>
       </c>
       <c r="X2" t="n">
-        <v>1907.229135963029</v>
+        <v>1277.225916111166</v>
       </c>
       <c r="Y2" t="n">
-        <v>1902.983416303087</v>
+        <v>1272.980196451223</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1512.992809943912</v>
+        <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>1406.536348780554</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
-        <v>1311.446059927107</v>
+        <v>338.5686635760967</v>
       </c>
       <c r="E3" t="n">
-        <v>1217.325645254061</v>
+        <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>1133.941806870223</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>1048.556717136407</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
-        <v>1006.821064952619</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>1006.821064952619</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J3" t="n">
-        <v>1006.821064952619</v>
+        <v>358.5019935678207</v>
       </c>
       <c r="K3" t="n">
-        <v>1006.821064952619</v>
+        <v>778.554892512724</v>
       </c>
       <c r="L3" t="n">
-        <v>1468.481833257574</v>
+        <v>1198.607791457627</v>
       </c>
       <c r="M3" t="n">
-        <v>1468.481833257574</v>
+        <v>1618.66069040253</v>
       </c>
       <c r="N3" t="n">
-        <v>1468.481833257574</v>
+        <v>1618.66069040253</v>
       </c>
       <c r="O3" t="n">
-        <v>1468.481833257574</v>
+        <v>1618.66069040253</v>
       </c>
       <c r="P3" t="n">
-        <v>2129.321887799353</v>
+        <v>1618.66069040253</v>
       </c>
       <c r="Q3" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R3" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S3" t="n">
-        <v>2606.605388879811</v>
+        <v>1633.7279925288</v>
       </c>
       <c r="T3" t="n">
-        <v>2476.426745210413</v>
+        <v>1503.549348859402</v>
       </c>
       <c r="U3" t="n">
-        <v>2300.090198210381</v>
+        <v>1327.21280185937</v>
       </c>
       <c r="V3" t="n">
-        <v>2100.97268027238</v>
+        <v>1128.09528392137</v>
       </c>
       <c r="W3" t="n">
-        <v>1915.649926005574</v>
+        <v>942.7725296545636</v>
       </c>
       <c r="X3" t="n">
-        <v>1760.782490244454</v>
+        <v>787.9050938934436</v>
       </c>
       <c r="Y3" t="n">
-        <v>1634.296711023675</v>
+        <v>661.4193146726643</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>741.4772326516122</v>
+        <v>851.7801684713901</v>
       </c>
       <c r="C4" t="n">
-        <v>741.4772326516122</v>
+        <v>851.7801684713901</v>
       </c>
       <c r="D4" t="n">
-        <v>617.3126187870138</v>
+        <v>685.9021756729128</v>
       </c>
       <c r="E4" t="n">
-        <v>447.554615037751</v>
+        <v>516.14417192365</v>
       </c>
       <c r="F4" t="n">
-        <v>447.554615037751</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G4" t="n">
-        <v>281.9633400635787</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H4" t="n">
-        <v>142.0611657539532</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>139.9809016933184</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>414.739356264454</v>
+        <v>308.7021231727439</v>
       </c>
       <c r="L4" t="n">
-        <v>832.9492380324151</v>
+        <v>726.9120049407049</v>
       </c>
       <c r="M4" t="n">
-        <v>1292.433105213328</v>
+        <v>726.9120049407049</v>
       </c>
       <c r="N4" t="n">
-        <v>1734.691908370973</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O4" t="n">
-        <v>2154.361157596754</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P4" t="n">
-        <v>2501.868051567096</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q4" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>2648.6430051368</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>2489.401636434796</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T4" t="n">
-        <v>2243.522190013251</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U4" t="n">
-        <v>1965.089189266357</v>
+        <v>1656.153835681255</v>
       </c>
       <c r="V4" t="n">
-        <v>1678.133681136787</v>
+        <v>1369.198327551686</v>
       </c>
       <c r="W4" t="n">
-        <v>1406.107276723079</v>
+        <v>1097.171923137978</v>
       </c>
       <c r="X4" t="n">
-        <v>1160.715522056491</v>
+        <v>851.7801684713901</v>
       </c>
       <c r="Y4" t="n">
-        <v>933.2958513705994</v>
+        <v>851.7801684713901</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1786.86986531245</v>
+        <v>2073.031189930082</v>
       </c>
       <c r="C5" t="n">
-        <v>1752.767796536277</v>
+        <v>1634.888717113505</v>
       </c>
       <c r="D5" t="n">
-        <v>1316.858011710722</v>
+        <v>1198.97893228795</v>
       </c>
       <c r="E5" t="n">
-        <v>883.0832668690169</v>
+        <v>1169.244591486649</v>
       </c>
       <c r="F5" t="n">
-        <v>455.2158372782247</v>
+        <v>741.3771618958569</v>
       </c>
       <c r="G5" t="n">
-        <v>53.81800590148855</v>
+        <v>339.9793305191208</v>
       </c>
       <c r="H5" t="n">
-        <v>53.81800590148855</v>
+        <v>50.8491759623371</v>
       </c>
       <c r="I5" t="n">
-        <v>53.40121652862856</v>
+        <v>50.4323865894771</v>
       </c>
       <c r="J5" t="n">
-        <v>53.40121652862856</v>
+        <v>50.4323865894771</v>
       </c>
       <c r="K5" t="n">
-        <v>53.40121652862856</v>
+        <v>50.4323865894771</v>
       </c>
       <c r="L5" t="n">
-        <v>714.2412710704069</v>
+        <v>674.5331706342562</v>
       </c>
       <c r="M5" t="n">
-        <v>1375.081325612185</v>
+        <v>1298.633954679035</v>
       </c>
       <c r="N5" t="n">
-        <v>2035.921380153963</v>
+        <v>1922.734738723814</v>
       </c>
       <c r="O5" t="n">
-        <v>2035.921380153963</v>
+        <v>2521.619329473855</v>
       </c>
       <c r="P5" t="n">
-        <v>2035.921380153963</v>
+        <v>2521.619329473855</v>
       </c>
       <c r="Q5" t="n">
-        <v>2500.906761678371</v>
+        <v>2521.619329473855</v>
       </c>
       <c r="R5" t="n">
-        <v>2670.060826431428</v>
+        <v>2521.619329473855</v>
       </c>
       <c r="S5" t="n">
-        <v>2670.060826431428</v>
+        <v>2521.619329473855</v>
       </c>
       <c r="T5" t="n">
-        <v>2670.060826431428</v>
+        <v>2301.552102346894</v>
       </c>
       <c r="U5" t="n">
-        <v>2637.372669426552</v>
+        <v>2301.552102346894</v>
       </c>
       <c r="V5" t="n">
-        <v>2637.372669426552</v>
+        <v>2301.552102346894</v>
       </c>
       <c r="W5" t="n">
-        <v>2636.55761887799</v>
+        <v>2300.737051798331</v>
       </c>
       <c r="X5" t="n">
-        <v>2621.455559497705</v>
+        <v>2285.634992418046</v>
       </c>
       <c r="Y5" t="n">
-        <v>2213.169435797358</v>
+        <v>2281.389272758103</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>559.5729615199214</v>
+        <v>556.6041315807699</v>
       </c>
       <c r="C6" t="n">
-        <v>453.1165003565636</v>
+        <v>450.1476704174122</v>
       </c>
       <c r="D6" t="n">
-        <v>358.0262115031169</v>
+        <v>355.0573815639655</v>
       </c>
       <c r="E6" t="n">
-        <v>263.9057968300706</v>
+        <v>260.9369668909192</v>
       </c>
       <c r="F6" t="n">
-        <v>180.5219584462322</v>
+        <v>177.5531285070808</v>
       </c>
       <c r="G6" t="n">
-        <v>95.13686871241609</v>
+        <v>92.16803877326464</v>
       </c>
       <c r="H6" t="n">
-        <v>53.40121652862856</v>
+        <v>50.4323865894771</v>
       </c>
       <c r="I6" t="n">
-        <v>79.46488968908616</v>
+        <v>76.4960597499347</v>
       </c>
       <c r="J6" t="n">
-        <v>404.0232146552985</v>
+        <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>404.0232146552985</v>
+        <v>1025.155168760926</v>
       </c>
       <c r="L6" t="n">
-        <v>404.0232146552985</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="M6" t="n">
-        <v>1064.863269197077</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
-        <v>1064.863269197077</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>1064.863269197077</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
-        <v>1064.863269197077</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1605.602207829152</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1716.640978007438</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1653.185540455821</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1523.006896786422</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1346.67034978639</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1147.55283184839</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>962.2300775815838</v>
+        <v>959.2612476424324</v>
       </c>
       <c r="X6" t="n">
-        <v>807.3626418204638</v>
+        <v>804.3938118813123</v>
       </c>
       <c r="Y6" t="n">
-        <v>680.8768625996845</v>
+        <v>677.9080326605331</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>959.897665623735</v>
+        <v>593.0357356940394</v>
       </c>
       <c r="C7" t="n">
-        <v>959.897665623735</v>
+        <v>455.701564162671</v>
       </c>
       <c r="D7" t="n">
-        <v>794.0196728252577</v>
+        <v>455.701564162671</v>
       </c>
       <c r="E7" t="n">
-        <v>624.2616690759949</v>
+        <v>455.701564162671</v>
       </c>
       <c r="F7" t="n">
-        <v>447.554615037751</v>
+        <v>278.9945101244273</v>
       </c>
       <c r="G7" t="n">
-        <v>281.9633400635787</v>
+        <v>278.9945101244273</v>
       </c>
       <c r="H7" t="n">
-        <v>142.0611657539532</v>
+        <v>139.0923358148018</v>
       </c>
       <c r="I7" t="n">
-        <v>53.40121652862856</v>
+        <v>50.4323865894771</v>
       </c>
       <c r="J7" t="n">
-        <v>139.9809016933183</v>
+        <v>137.012071754167</v>
       </c>
       <c r="K7" t="n">
-        <v>414.7393562644539</v>
+        <v>411.7705263253025</v>
       </c>
       <c r="L7" t="n">
-        <v>832.949238032415</v>
+        <v>829.9804080932636</v>
       </c>
       <c r="M7" t="n">
-        <v>1292.433105213328</v>
+        <v>1289.464275274177</v>
       </c>
       <c r="N7" t="n">
-        <v>1734.691908370972</v>
+        <v>1731.723078431821</v>
       </c>
       <c r="O7" t="n">
-        <v>2154.361157596754</v>
+        <v>2151.392327657602</v>
       </c>
       <c r="P7" t="n">
-        <v>2501.868051567096</v>
+        <v>2353.426554609523</v>
       </c>
       <c r="Q7" t="n">
-        <v>2670.060826431428</v>
+        <v>2521.619329473855</v>
       </c>
       <c r="R7" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.201508179227</v>
       </c>
       <c r="S7" t="n">
-        <v>2510.819457729424</v>
+        <v>2340.960139477223</v>
       </c>
       <c r="T7" t="n">
-        <v>2264.94001130788</v>
+        <v>2095.080693055679</v>
       </c>
       <c r="U7" t="n">
-        <v>1986.507010560985</v>
+        <v>1816.647692308784</v>
       </c>
       <c r="V7" t="n">
-        <v>1699.551502431415</v>
+        <v>1529.692184179214</v>
       </c>
       <c r="W7" t="n">
-        <v>1427.525098017707</v>
+        <v>1257.665779765506</v>
       </c>
       <c r="X7" t="n">
-        <v>1187.317336309627</v>
+        <v>1012.274025098918</v>
       </c>
       <c r="Y7" t="n">
-        <v>959.897665623735</v>
+        <v>784.8543544130266</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>832.8334410837864</v>
+        <v>648.8602641703436</v>
       </c>
       <c r="C8" t="n">
-        <v>798.7313723076138</v>
+        <v>543.2891570787331</v>
       </c>
       <c r="D8" t="n">
-        <v>766.8619915224624</v>
+        <v>511.4197762935816</v>
       </c>
       <c r="E8" t="n">
-        <v>737.1276507211617</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F8" t="n">
-        <v>342.5313710854123</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G8" t="n">
-        <v>342.5313710854123</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
@@ -4805,16 +4807,16 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>632.7278666362198</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>632.7278666362198</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M8" t="n">
-        <v>632.7278666362198</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N8" t="n">
-        <v>632.7278666362198</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O8" t="n">
         <v>1293.567921177998</v>
@@ -4832,22 +4834,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2449.993599304466</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>2449.993599304466</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>2087.376649238293</v>
+        <v>2307.443876365254</v>
       </c>
       <c r="W8" t="n">
-        <v>1682.521194649326</v>
+        <v>1902.588421776288</v>
       </c>
       <c r="X8" t="n">
-        <v>1263.378731228637</v>
+        <v>1483.445958355598</v>
       </c>
       <c r="Y8" t="n">
-        <v>855.0926075282902</v>
+        <v>1075.159834655251</v>
       </c>
     </row>
     <row r="9">
@@ -4881,22 +4883,22 @@
         <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>397.8892067392439</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>397.8892067392439</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>397.8892067392439</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>397.8892067392439</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>397.8892067392439</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>397.8892067392439</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
         <v>1058.729261281022</v>
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>966.5813843420327</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>794.0196728252577</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D10" t="n">
-        <v>794.0196728252577</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E10" t="n">
-        <v>624.2616690759949</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F10" t="n">
-        <v>447.554615037751</v>
+        <v>193.303390838254</v>
       </c>
       <c r="G10" t="n">
-        <v>281.9633400635787</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H10" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
         <v>53.40121652862856</v>
@@ -4999,13 +5001,13 @@
         <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1631.211428413499</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1385.819673746912</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>1158.40000306102</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1971.734288653627</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>1533.59181583705</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1097.682031011494</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>773.1239838043537</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>345.2565542135613</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G11" t="n">
-        <v>345.2565542135613</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H11" t="n">
-        <v>56.12639965677762</v>
+        <v>102.6776296436399</v>
       </c>
       <c r="I11" t="n">
-        <v>56.12639965677762</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>491.3810871096955</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K11" t="n">
-        <v>1185.945282862318</v>
+        <v>228.524776110223</v>
       </c>
       <c r="L11" t="n">
-        <v>1396.102936374607</v>
+        <v>1303.584742363082</v>
       </c>
       <c r="M11" t="n">
-        <v>1396.102936374607</v>
+        <v>2460.632577573633</v>
       </c>
       <c r="N11" t="n">
-        <v>1396.102936374607</v>
+        <v>3586.36356101008</v>
       </c>
       <c r="O11" t="n">
-        <v>1396.102936374607</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="P11" t="n">
-        <v>2090.667132127229</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q11" t="n">
-        <v>2637.165918085824</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R11" t="n">
-        <v>2806.319982838881</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>2806.319982838881</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T11" t="n">
-        <v>2806.319982838881</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U11" t="n">
-        <v>2806.319982838881</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>2806.319982838881</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>2806.319982838881</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>2806.319982838881</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2398.033859138534</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>562.2981446480704</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>455.8416834847127</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>360.751394631266</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>266.6309799582197</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>183.2471415743813</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>97.86205184056516</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>56.12639965677762</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>82.19007281723522</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>406.7483977834476</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K12" t="n">
-        <v>1087.481917853825</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L12" t="n">
-        <v>1087.481917853825</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M12" t="n">
-        <v>1087.481917853825</v>
+        <v>1327.049347523737</v>
       </c>
       <c r="N12" t="n">
-        <v>1087.481917853825</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="O12" t="n">
-        <v>1087.481917853825</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="P12" t="n">
-        <v>1087.481917853825</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q12" t="n">
-        <v>1602.193383041247</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1719.366161135586</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1655.910723583969</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1525.732079914571</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1349.395532914539</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1150.278014976539</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>964.9552607097328</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>810.0878249486128</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>683.6020457278336</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>924.8616057763934</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C13" t="n">
-        <v>752.2998942596183</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D13" t="n">
-        <v>586.421901461141</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E13" t="n">
-        <v>416.6638977118783</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F13" t="n">
-        <v>361.6198489405754</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="G13" t="n">
-        <v>196.0285739664031</v>
+        <v>137.965694649704</v>
       </c>
       <c r="H13" t="n">
-        <v>56.12639965677762</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
-        <v>56.12639965677762</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>142.7060848214675</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>417.4645393926031</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>835.6744211605641</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1295.158288341477</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1737.417091499122</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2157.086340724903</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2504.593234695245</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2672.786009559577</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2672.786009559577</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2672.786009559577</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T13" t="n">
-        <v>2426.906563138033</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U13" t="n">
-        <v>2148.473562391138</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V13" t="n">
-        <v>1861.518054261568</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W13" t="n">
-        <v>1589.49164984786</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X13" t="n">
-        <v>1344.099895181272</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y13" t="n">
-        <v>1116.680224495381</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>494.6856618462143</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>56.54318902963762</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>56.54318902963762</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>56.54318902963762</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>56.54318902963762</v>
+        <v>793.2056155771596</v>
       </c>
       <c r="G14" t="n">
-        <v>56.54318902963762</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>56.54318902963762</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I14" t="n">
-        <v>56.12639965677762</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>491.3810871096955</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>1185.945282862318</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>1396.102936374607</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>1396.102936374607</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="N14" t="n">
-        <v>1396.102936374607</v>
+        <v>3963.708282215619</v>
       </c>
       <c r="O14" t="n">
-        <v>1396.102936374607</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="P14" t="n">
-        <v>2090.667132127229</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="Q14" t="n">
-        <v>2637.165918085824</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>2806.319982838881</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>2722.668109022718</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>2502.600881895757</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>2243.378579212774</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>1880.761629146599</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>1475.906174557632</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>1329.271356031469</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>920.9852323311222</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>562.2981446480704</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>455.8416834847127</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>360.751394631266</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>266.6309799582197</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>183.2471415743813</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>97.86205184056516</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>56.12639965677762</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>82.19007281723522</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>406.7483977834476</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K15" t="n">
-        <v>1087.481917853825</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L15" t="n">
-        <v>1087.481917853825</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M15" t="n">
-        <v>1087.481917853825</v>
+        <v>1327.049347523737</v>
       </c>
       <c r="N15" t="n">
-        <v>1087.481917853825</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="O15" t="n">
-        <v>1087.481917853825</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="P15" t="n">
-        <v>1087.481917853825</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q15" t="n">
-        <v>1602.193383041247</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1719.366161135586</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1655.910723583969</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1525.732079914571</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1349.395532914539</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1150.278014976539</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>964.9552607097328</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>810.0878249486128</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>683.6020457278336</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>906.6224367337088</v>
+        <v>845.683004334921</v>
       </c>
       <c r="C16" t="n">
-        <v>734.0607252169337</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="D16" t="n">
-        <v>568.1827324184565</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="E16" t="n">
-        <v>398.4247286691938</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F16" t="n">
-        <v>221.7176746309499</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G16" t="n">
-        <v>56.12639965677762</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H16" t="n">
-        <v>56.12639965677762</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
-        <v>56.12639965677762</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>142.7060848214675</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>417.4645393926031</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>835.6744211605641</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1295.158288341477</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1737.417091499122</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2157.086340724903</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2504.593234695245</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2672.786009559577</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2651.368188264949</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2492.126819562946</v>
+        <v>2593.607408118105</v>
       </c>
       <c r="T16" t="n">
-        <v>2246.247373141401</v>
+        <v>2347.72796169656</v>
       </c>
       <c r="U16" t="n">
-        <v>1967.814372394506</v>
+        <v>2069.294960949665</v>
       </c>
       <c r="V16" t="n">
-        <v>1680.858864264937</v>
+        <v>1782.339452820096</v>
       </c>
       <c r="W16" t="n">
-        <v>1408.832459851228</v>
+        <v>1510.313048406387</v>
       </c>
       <c r="X16" t="n">
-        <v>1325.860726138588</v>
+        <v>1264.9212937398</v>
       </c>
       <c r="Y16" t="n">
-        <v>1098.441055452696</v>
+        <v>1037.501623053908</v>
       </c>
     </row>
     <row r="17">
@@ -5519,10 +5521,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2446.925785934734</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M17" t="n">
-        <v>2588.899621423628</v>
+        <v>2528.913654892426</v>
       </c>
       <c r="N17" t="n">
         <v>2588.899621423628</v>
@@ -5549,10 +5551,10 @@
         <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
         <v>3363.485741837043</v>
@@ -5589,25 +5591,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J18" t="n">
-        <v>128.3245134312372</v>
+        <v>426.819165236992</v>
       </c>
       <c r="K18" t="n">
-        <v>809.0580335016147</v>
+        <v>426.819165236992</v>
       </c>
       <c r="L18" t="n">
-        <v>1763.601082312719</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="M18" t="n">
-        <v>1763.601082312719</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="N18" t="n">
-        <v>1763.601082312719</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="O18" t="n">
-        <v>1763.601082312719</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="P18" t="n">
         <v>1765.500601749588</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>790.3368563937629</v>
+        <v>1092.659051657341</v>
       </c>
       <c r="C19" t="n">
-        <v>617.7751448769878</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D19" t="n">
-        <v>451.8971520785105</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E19" t="n">
-        <v>282.1391483292478</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F19" t="n">
-        <v>105.432094291004</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H19" t="n">
         <v>102.2608402707796</v>
@@ -5680,43 +5682,43 @@
         <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1341.292728955478</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1783.551532113123</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2203.220781338904</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2550.727675309246</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.50262887895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2538.261260176947</v>
+        <v>2568.557051026816</v>
       </c>
       <c r="T19" t="n">
-        <v>2292.381813755402</v>
+        <v>2322.677604605271</v>
       </c>
       <c r="U19" t="n">
-        <v>2013.948813008507</v>
+        <v>2044.244603858377</v>
       </c>
       <c r="V19" t="n">
-        <v>1726.993304878938</v>
+        <v>1757.289095728807</v>
       </c>
       <c r="W19" t="n">
-        <v>1454.966900465229</v>
+        <v>1757.289095728807</v>
       </c>
       <c r="X19" t="n">
-        <v>1209.575145798642</v>
+        <v>1511.89734106222</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.1554751127501</v>
+        <v>1284.477670376328</v>
       </c>
     </row>
     <row r="20">
@@ -5741,10 +5743,10 @@
         <v>793.2056155771606</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5753,25 +5755,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K20" t="n">
-        <v>936.6111322289576</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L20" t="n">
-        <v>2011.671098481817</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M20" t="n">
-        <v>2011.671098481817</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N20" t="n">
-        <v>3137.402081918264</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O20" t="n">
-        <v>4117.581748488571</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P20" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R20" t="n">
         <v>5113.042013538981</v>
@@ -5826,31 +5828,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J21" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L21" t="n">
-        <v>1107.588885023173</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="M21" t="n">
-        <v>1107.588885023173</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="N21" t="n">
-        <v>1107.588885023173</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="O21" t="n">
-        <v>1107.588885023173</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="P21" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q21" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3492.831749183365</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C22" t="n">
-        <v>3320.270037666589</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D22" t="n">
-        <v>3154.392044868112</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E22" t="n">
-        <v>2984.634041118849</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F22" t="n">
-        <v>2807.926987080606</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G22" t="n">
-        <v>2642.335712106433</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H22" t="n">
-        <v>2585.042352861507</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J22" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K22" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L22" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M22" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N22" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O22" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P22" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q22" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>4953.800644836978</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T22" t="n">
-        <v>4707.921198415434</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U22" t="n">
-        <v>4429.488197668539</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V22" t="n">
-        <v>4429.488197668539</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W22" t="n">
-        <v>4157.461793254831</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X22" t="n">
-        <v>3912.070038588243</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y22" t="n">
-        <v>3684.650367902352</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="23">
@@ -5993,7 +5995,7 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934734</v>
+        <v>1431.851786213076</v>
       </c>
       <c r="M23" t="n">
         <v>2588.899621423627</v>
@@ -6063,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J24" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K24" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L24" t="n">
-        <v>1107.588885023173</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="M24" t="n">
-        <v>1107.588885023173</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="N24" t="n">
-        <v>1107.588885023173</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="O24" t="n">
-        <v>1107.588885023173</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="P24" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q24" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3575.440564248063</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>3402.878852731288</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>3237.000859932811</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>3067.242856183548</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>2890.535802145304</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>2724.944527171132</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>2585.042352861507</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J25" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K25" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L25" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M25" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N25" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O25" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P25" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q25" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>5113.042013538981</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>4867.162567117437</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>4588.729566370543</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>4301.774058240973</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>4029.747653827265</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>3784.355899160677</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>3767.25918296705</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6227,25 +6229,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L26" t="n">
-        <v>2011.671098481817</v>
+        <v>1021.773653488281</v>
       </c>
       <c r="M26" t="n">
-        <v>2011.671098481817</v>
+        <v>2178.821488698832</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>3304.552472135279</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>4284.732138705585</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6300,31 +6302,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J27" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K27" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L27" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M27" t="n">
-        <v>452.8828383974496</v>
+        <v>531.6733301892817</v>
       </c>
       <c r="N27" t="n">
-        <v>452.8828383974496</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O27" t="n">
-        <v>452.8828383974496</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P27" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q27" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6358,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>617.7751448769883</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>451.897152078511</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>282.1391483292483</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>105.4320942910045</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6464,25 +6466,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>102.2608402707796</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L29" t="n">
-        <v>306.120802776629</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M29" t="n">
-        <v>1463.16863798718</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C30" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D30" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E30" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F30" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G30" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H30" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="M30" t="n">
-        <v>531.6733301892817</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="N30" t="n">
-        <v>1765.500601749588</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="O30" t="n">
-        <v>1765.500601749588</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R30" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S30" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T30" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U30" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V30" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W30" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X30" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y30" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="31">
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1092.659051657336</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C31" t="n">
-        <v>920.0973401405612</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D31" t="n">
-        <v>754.2193473420839</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E31" t="n">
-        <v>584.4613435928212</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F31" t="n">
-        <v>407.7542895545774</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G31" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T31" t="n">
-        <v>2473.041003752034</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U31" t="n">
-        <v>2194.608003005139</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V31" t="n">
-        <v>1907.65249487557</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W31" t="n">
-        <v>1757.289095728803</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X31" t="n">
-        <v>1511.897341062215</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y31" t="n">
-        <v>1284.477670376323</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="32">
@@ -6701,25 +6703,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>936.6111322289576</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L32" t="n">
-        <v>2011.671098481817</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M32" t="n">
-        <v>3168.718933692368</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N32" t="n">
-        <v>3168.718933692368</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O32" t="n">
-        <v>4148.898600262674</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P32" t="n">
-        <v>4566.543227580387</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6774,31 +6776,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M33" t="n">
-        <v>531.6733301892817</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N33" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O33" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1041.416826573035</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>868.8551150562604</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>702.9771222577831</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>533.2191185085204</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>356.5120644702766</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6883,25 +6885,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2543.461783934675</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2265.02878318778</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1978.07327505821</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1706.046870644502</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1460.655115977914</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1233.235445292023</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E35" t="n">
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L35" t="n">
-        <v>2009.667423945775</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M35" t="n">
-        <v>2009.667423945775</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N35" t="n">
-        <v>3135.398407382222</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O35" t="n">
-        <v>4115.578073952528</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P35" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W35" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C36" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D36" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E36" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F36" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G36" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H36" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S36" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T36" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U36" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V36" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W36" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X36" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y36" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="37">
@@ -7069,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309357</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324584</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831957</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F37" t="n">
         <v>267.852115244952</v>
@@ -7120,25 +7122,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U37" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V37" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W37" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X37" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y37" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="38">
@@ -7166,37 +7168,37 @@
         <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2627364873778</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L38" t="n">
-        <v>1632.322702740237</v>
+        <v>1021.77365348828</v>
       </c>
       <c r="M38" t="n">
-        <v>1632.322702740237</v>
+        <v>2178.821488698831</v>
       </c>
       <c r="N38" t="n">
-        <v>2758.053686176684</v>
+        <v>3304.552472135278</v>
       </c>
       <c r="O38" t="n">
-        <v>3738.23335274699</v>
+        <v>4284.732138705584</v>
       </c>
       <c r="P38" t="n">
-        <v>4566.543227580387</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
         <v>5029.390139722817</v>
@@ -7248,31 +7250,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1181.319000882661</v>
+        <v>970.9960463903903</v>
       </c>
       <c r="C40" t="n">
-        <v>1008.757289365886</v>
+        <v>798.4343348736153</v>
       </c>
       <c r="D40" t="n">
-        <v>842.8792965674086</v>
+        <v>632.556342075138</v>
       </c>
       <c r="E40" t="n">
-        <v>673.1212928181459</v>
+        <v>462.7983383258752</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>286.0912842876314</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7336,46 +7338,46 @@
         <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745609</v>
       </c>
       <c r="M40" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955474</v>
       </c>
       <c r="N40" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113118</v>
       </c>
       <c r="O40" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.2207813389</v>
       </c>
       <c r="P40" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309242</v>
       </c>
       <c r="Q40" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173574</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173574</v>
       </c>
       <c r="S40" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173574</v>
       </c>
       <c r="T40" t="n">
-        <v>2683.3639582443</v>
+        <v>2473.04100375203</v>
       </c>
       <c r="U40" t="n">
-        <v>2404.930957497405</v>
+        <v>2194.608003005135</v>
       </c>
       <c r="V40" t="n">
-        <v>2117.975449367836</v>
+        <v>1907.652494875565</v>
       </c>
       <c r="W40" t="n">
-        <v>1845.949044954127</v>
+        <v>1635.626090461857</v>
       </c>
       <c r="X40" t="n">
-        <v>1600.55729028754</v>
+        <v>1390.234335795269</v>
       </c>
       <c r="Y40" t="n">
-        <v>1373.137619601648</v>
+        <v>1162.814665109378</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>747.0711749631575</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C41" t="n">
-        <v>747.0711749631575</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D41" t="n">
-        <v>747.0711749631575</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E41" t="n">
-        <v>747.0711749631575</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F41" t="n">
-        <v>747.0711749631575</v>
+        <v>793.2056155771589</v>
       </c>
       <c r="G41" t="n">
-        <v>345.6733435864214</v>
+        <v>391.8077842004228</v>
       </c>
       <c r="H41" t="n">
-        <v>56.54318902963762</v>
+        <v>102.6776296436391</v>
       </c>
       <c r="I41" t="n">
-        <v>56.12639965677762</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>176.1286096224173</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>870.6928053750403</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>870.6928053750403</v>
+        <v>2412.031452783383</v>
       </c>
       <c r="M41" t="n">
-        <v>1565.257001127663</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="N41" t="n">
-        <v>1565.257001127663</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="O41" t="n">
-        <v>2259.821196880286</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
-        <v>2259.821196880286</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>2806.319982838881</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>2806.319982838881</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>2806.319982838881</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>2586.25275571192</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>2363.416282635275</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>2000.799332569101</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
-        <v>2000.799332569101</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>1581.656869148412</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>1173.370745448065</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>562.2981446480704</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>455.8416834847127</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>360.751394631266</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>266.6309799582197</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>183.2471415743813</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>97.86205184056516</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>56.12639965677762</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>82.19007281723522</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>406.7483977834476</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>1061.454444409171</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>1061.454444409171</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>1061.454444409171</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>1061.454444409171</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>1061.454444409171</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1061.454444409171</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1602.193383041247</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1719.366161135586</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1655.910723583969</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1525.732079914571</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1349.395532914539</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1150.278014976539</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>964.9552607097328</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>810.0878249486128</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>683.6020457278336</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>799.548563720919</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C43" t="n">
-        <v>626.9868522041439</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D43" t="n">
-        <v>626.9868522041439</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E43" t="n">
-        <v>626.9868522041439</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F43" t="n">
-        <v>450.2797981659001</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
-        <v>284.6885231917278</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7863488821023</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>56.12639965677762</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>142.7060848214675</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>417.4645393926031</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>835.6744211605641</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1295.158288341477</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1737.417091499122</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2157.086340724903</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2504.593234695245</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2672.786009559577</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2651.368188264949</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2492.126819562946</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T43" t="n">
-        <v>2246.247373141401</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U43" t="n">
-        <v>1967.814372394506</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V43" t="n">
-        <v>1680.858864264937</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W43" t="n">
-        <v>1408.832459851228</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X43" t="n">
-        <v>1163.440705184641</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y43" t="n">
-        <v>936.021034498749</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>494.2688724733543</v>
+        <v>2528.900047651788</v>
       </c>
       <c r="C44" t="n">
-        <v>56.12639965677762</v>
+        <v>2090.757574835211</v>
       </c>
       <c r="D44" t="n">
-        <v>56.12639965677762</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E44" t="n">
-        <v>56.12639965677762</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F44" t="n">
-        <v>56.12639965677762</v>
+        <v>793.2056155771588</v>
       </c>
       <c r="G44" t="n">
-        <v>56.12639965677762</v>
+        <v>391.8077842004227</v>
       </c>
       <c r="H44" t="n">
-        <v>56.12639965677762</v>
+        <v>102.677629643639</v>
       </c>
       <c r="I44" t="n">
-        <v>56.12639965677762</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>491.3810871096955</v>
+        <v>356.7918199602176</v>
       </c>
       <c r="K44" t="n">
-        <v>1185.945282862318</v>
+        <v>356.7918199602176</v>
       </c>
       <c r="L44" t="n">
-        <v>1185.945282862318</v>
+        <v>1431.851786213077</v>
       </c>
       <c r="M44" t="n">
-        <v>1185.945282862318</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N44" t="n">
-        <v>1185.945282862318</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O44" t="n">
-        <v>1880.509478614941</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
-        <v>2575.073674367564</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>2637.165918085824</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>2806.319982838881</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>2722.668109022718</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T44" t="n">
-        <v>2502.600881895757</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U44" t="n">
-        <v>2243.378579212774</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V44" t="n">
-        <v>1880.7616291466</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W44" t="n">
-        <v>1475.906174557633</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X44" t="n">
-        <v>1328.854566658609</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y44" t="n">
-        <v>920.568442958262</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>562.2981446480704</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>455.8416834847127</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>360.751394631266</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>266.6309799582197</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>183.2471415743813</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>97.86205184056516</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>56.12639965677762</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>82.19007281723522</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>406.7483977834476</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1061.454444409171</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L45" t="n">
-        <v>1061.454444409171</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M45" t="n">
-        <v>1061.454444409171</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N45" t="n">
-        <v>1061.454444409171</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O45" t="n">
-        <v>1061.454444409171</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1061.454444409171</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1602.193383041247</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1719.366161135586</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1655.910723583969</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1525.732079914571</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1349.395532914539</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1150.278014976539</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>964.9552607097328</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>810.0878249486128</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>683.6020457278336</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1046.524611043334</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C46" t="n">
-        <v>873.9628995265592</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D46" t="n">
-        <v>708.0849067280819</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E46" t="n">
-        <v>538.3269029788192</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
-        <v>361.6198489405754</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>196.0285739664031</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>56.12639965677762</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>56.12639965677762</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>142.7060848214675</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>417.4645393926031</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>835.6744211605641</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1295.158288341477</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1737.417091499122</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2157.086340724903</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2504.593234695245</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2672.786009559577</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2651.368188264949</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S46" t="n">
-        <v>2651.368188264949</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T46" t="n">
-        <v>2548.569568404973</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U46" t="n">
-        <v>2270.136567658079</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V46" t="n">
-        <v>1983.181059528509</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W46" t="n">
-        <v>1711.154655114801</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X46" t="n">
-        <v>1465.762900448213</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y46" t="n">
-        <v>1238.343229762321</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="M2" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>667.5152066078567</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>469.682203560008</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8055,16 +8057,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L3" t="n">
-        <v>466.3240083888435</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8073,10 +8075,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>79.31589866453214</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -8134,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -8143,16 +8145,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>446.7260637956006</v>
+        <v>35.25505765581499</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165066</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821538</v>
@@ -8219,25 +8221,25 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>667.515206607857</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="M5" t="n">
-        <v>667.5152066078568</v>
+        <v>630.4048323684639</v>
       </c>
       <c r="N5" t="n">
-        <v>667.5152066078567</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>604.9339300505462</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>469.682203560008</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,13 +8297,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>630.4048323684639</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>30.91440664741867</v>
       </c>
       <c r="M6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8316,7 +8318,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>112.1603739174598</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8371,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8389,7 +8391,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>204.0749767191114</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821538</v>
@@ -8453,11 +8455,11 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
+        <v>667.515206607857</v>
+      </c>
+      <c r="L8" t="n">
         <v>145.5272350047205</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
@@ -8465,7 +8467,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -8529,7 +8531,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>321.6407242930886</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8538,7 +8540,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8547,7 +8549,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -8687,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>701.5799957097202</v>
+        <v>127.5393291307509</v>
       </c>
       <c r="L11" t="n">
-        <v>212.2804580932202</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>701.5799957097202</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,19 +8768,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>324.5237132641532</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8787,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>519.9105708963857</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8927,25 +8929,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>701.5799957097202</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>212.2804580932202</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>363.3683445154879</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>701.5799957097202</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>170.8626916697543</v>
@@ -9003,19 +9005,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>324.5237132641532</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9024,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>519.9105708963857</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9167,13 +9169,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>143.4079146352456</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>60.59188538505214</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9237,16 +9239,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>964.1848977889938</v>
+        <v>524.2002727610084</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9258,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>1.918706501888892</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9401,13 +9403,13 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
@@ -9416,13 +9418,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>282.6337518573328</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9474,16 +9476,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>852.0369646460714</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9495,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9641,10 +9643,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>60.59188538505123</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9711,16 +9713,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>852.0369646460714</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9732,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9875,16 +9877,16 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>928.8008214318197</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>583.0591140826364</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -9893,10 +9895,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9960,22 +9962,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10112,10 +10114,10 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
@@ -10124,16 +10126,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,22 +10187,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10209,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10349,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -10358,19 +10360,19 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>421.8632599168814</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>-8.355777987821105e-14</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10422,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10434,22 +10436,22 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,16 +10585,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L35" t="n">
-        <v>644.2440447110093</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
@@ -10601,13 +10603,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,16 +10822,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>19.94667551886903</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>928.8008214318188</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
         <v>1137.102003471159</v>
@@ -10841,7 +10843,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -10896,22 +10898,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10920,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>121.2143535006462</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>701.5799957097203</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1050.67235666819</v>
       </c>
       <c r="M41" t="n">
-        <v>701.5799957097203</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>701.5799957097202</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>257.101999686301</v>
       </c>
       <c r="K44" t="n">
-        <v>701.5799957097202</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>701.5799957097202</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>701.5799957097202</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>62.71943809925233</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
         <v>170.8626916697543</v>
@@ -11376,19 +11378,19 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -23264,19 +23266,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>108.1245306582184</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.866554855693</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.8069000430771</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864825</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23425,13 +23427,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>120.4463752142715</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>103.1553467313941</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23464,7 +23466,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23498,19 +23500,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948844</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23558,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>269.7825684455806</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23656,10 +23658,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>33.58904338006411</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>160.7958207444075</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23902,10 +23904,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>160.7958207444085</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>8.789189859688207</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24142,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>81.78272691405178</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24177,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24414,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>208.2197249473422</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24613,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24850,10 +24852,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24898,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>120.446375214272</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,10 +25125,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
-        <v>227.3655273957975</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25321,7 +25323,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25360,7 +25362,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25561,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>120.4463752142765</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,7 +25602,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25628,16 +25630,16 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25676,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>36.02197131027495</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25783,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>54.79268646174552</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25801,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25843,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25868,22 +25870,22 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25928,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>269.369946966448</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26038,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -26071,10 +26073,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>141.650018295953</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>160.7958207444079</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>618562.5789427459</v>
+        <v>598608.1756504781</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>618562.5789427459</v>
+        <v>615517.9388815118</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>428591.0059320619</v>
+        <v>647540.0091784663</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>428591.0059320619</v>
+        <v>647540.0091784664</v>
       </c>
     </row>
     <row r="7">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>647540.0091784663</v>
+        <v>647540.0091784664</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>647540.0091784664</v>
+        <v>647540.0091784663</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>428591.005932062</v>
+        <v>647540.0091784664</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>428591.0059320621</v>
+        <v>647540.0091784664</v>
       </c>
     </row>
   </sheetData>
@@ -26314,19 +26316,19 @@
         <v>388706.8069205462</v>
       </c>
       <c r="C2" t="n">
-        <v>388706.8069205461</v>
+        <v>388706.8069205462</v>
       </c>
       <c r="D2" t="n">
-        <v>388706.8069205461</v>
+        <v>388706.8069205462</v>
       </c>
       <c r="E2" t="n">
-        <v>252817.8237739504</v>
+        <v>381971.7484995805</v>
       </c>
       <c r="F2" t="n">
-        <v>252817.8237739503</v>
+        <v>381971.7484995804</v>
       </c>
       <c r="G2" t="n">
-        <v>381971.7484995804</v>
+        <v>381971.7484995805</v>
       </c>
       <c r="H2" t="n">
         <v>381971.7484995804</v>
@@ -26335,10 +26337,10 @@
         <v>381971.7484995804</v>
       </c>
       <c r="J2" t="n">
-        <v>381971.7484995804</v>
+        <v>381971.7484995803</v>
       </c>
       <c r="K2" t="n">
-        <v>381971.7484995804</v>
+        <v>381971.7484995805</v>
       </c>
       <c r="L2" t="n">
         <v>381971.7484995804</v>
@@ -26347,13 +26349,13 @@
         <v>381971.7484995804</v>
       </c>
       <c r="N2" t="n">
-        <v>381971.7484995802</v>
+        <v>381971.7484995804</v>
       </c>
       <c r="O2" t="n">
-        <v>252817.8237739505</v>
+        <v>381971.7484995804</v>
       </c>
       <c r="P2" t="n">
-        <v>252817.8237739504</v>
+        <v>381971.7484995803</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>223699.6985840448</v>
+        <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501625</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998269</v>
       </c>
       <c r="E3" t="n">
-        <v>10170.99660045612</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>158059.4769461093</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>174651.3487177061</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877258</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622249</v>
       </c>
       <c r="M3" t="n">
-        <v>8489.081703340753</v>
+        <v>152200.1709379877</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>182515.9822733277</v>
+        <v>218225.2660325691</v>
       </c>
       <c r="C4" t="n">
-        <v>182515.9822733277</v>
+        <v>187964.4997909369</v>
       </c>
       <c r="D4" t="n">
         <v>182515.9822733277</v>
       </c>
       <c r="E4" t="n">
-        <v>71692.60207853663</v>
+        <v>108317.3178284629</v>
       </c>
       <c r="F4" t="n">
-        <v>71692.60207853663</v>
+        <v>108317.3178284629</v>
       </c>
       <c r="G4" t="n">
         <v>108317.3178284629</v>
@@ -26448,16 +26450,16 @@
         <v>108317.3178284629</v>
       </c>
       <c r="M4" t="n">
+        <v>108317.3178284628</v>
+      </c>
+      <c r="N4" t="n">
+        <v>108317.3178284628</v>
+      </c>
+      <c r="O4" t="n">
         <v>108317.3178284629</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>108317.3178284629</v>
-      </c>
-      <c r="O4" t="n">
-        <v>71692.60207853669</v>
-      </c>
-      <c r="P4" t="n">
-        <v>71692.60207853669</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>74212.5245617577</v>
+        <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>74212.5245617577</v>
+        <v>71956.21380800259</v>
       </c>
       <c r="D5" t="n">
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>42656.06373915099</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>42656.06373915099</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>42656.06373915099</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>42656.06373915099</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-91721.39849858409</v>
+        <v>-31134.54790895519</v>
       </c>
       <c r="C6" t="n">
-        <v>131978.3000854607</v>
+        <v>62198.3254265904</v>
       </c>
       <c r="D6" t="n">
-        <v>131978.3000854607</v>
+        <v>120450.7045354781</v>
       </c>
       <c r="E6" t="n">
-        <v>128298.1613558066</v>
+        <v>13581.0828442754</v>
       </c>
       <c r="F6" t="n">
-        <v>138469.1579562627</v>
+        <v>195936.192065325</v>
       </c>
       <c r="G6" t="n">
-        <v>37876.71511921572</v>
+        <v>195936.1920653251</v>
       </c>
       <c r="H6" t="n">
         <v>195936.192065325</v>
       </c>
       <c r="I6" t="n">
+        <v>195936.192065325</v>
+      </c>
+      <c r="J6" t="n">
+        <v>84921.72672033467</v>
+      </c>
+      <c r="K6" t="n">
+        <v>142890.3374265525</v>
+      </c>
+      <c r="L6" t="n">
+        <v>186543.8903387028</v>
+      </c>
+      <c r="M6" t="n">
+        <v>43736.02112733736</v>
+      </c>
+      <c r="N6" t="n">
+        <v>195936.192065325</v>
+      </c>
+      <c r="O6" t="n">
+        <v>195936.192065325</v>
+      </c>
+      <c r="P6" t="n">
         <v>195936.1920653249</v>
-      </c>
-      <c r="J6" t="n">
-        <v>21284.84334761881</v>
-      </c>
-      <c r="K6" t="n">
-        <v>195936.192065325</v>
-      </c>
-      <c r="L6" t="n">
-        <v>195936.192065325</v>
-      </c>
-      <c r="M6" t="n">
-        <v>187447.1103619842</v>
-      </c>
-      <c r="N6" t="n">
-        <v>195936.1920653248</v>
-      </c>
-      <c r="O6" t="n">
-        <v>138469.1579562628</v>
-      </c>
-      <c r="P6" t="n">
-        <v>138469.1579562628</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>667.515206607857</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>701.5799957097203</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>701.5799957097203</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>701.5799957097203</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>701.5799957097203</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483595</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939314</v>
       </c>
       <c r="E4" t="n">
-        <v>34.06478910186334</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>576.6805076750251</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483595</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939314</v>
       </c>
       <c r="M4" t="n">
-        <v>34.06478910186334</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483595</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939314</v>
       </c>
       <c r="M4" t="n">
-        <v>34.06478910186334</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>576.6805076750251</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,19 +27381,19 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>390.9141838848637</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>193.3230123105439</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27427,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27534,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>41.29624514454008</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27555,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>235.0293722842555</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27603,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27613,17 +27615,17 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>215.7620727803179</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>400</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
@@ -27631,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,10 +27669,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>224.2688042213266</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
@@ -27682,7 +27684,7 @@
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27771,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>34.87526458555263</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27837,7 +27839,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>5.132153028922289</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>329.2456520677165</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
@@ -27862,16 +27864,16 @@
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>32.93843845549242</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27906,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
@@ -28014,22 +28016,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>135.3636110865062</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28071,7 +28073,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>222.8531101735158</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28141,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-4.619961808540685e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28150,10 +28152,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-4.113950559524799e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>-4.113950559524804e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28384,10 +28386,10 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>-1.007447425432746e-12</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>-4.113950559524804e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28627,7 +28629,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>-1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -28752,7 +28754,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>-8.459501298696932e-13</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="M2" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>667.5152066078567</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>469.682203560008</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34775,16 +34777,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L3" t="n">
-        <v>466.3240083888435</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34793,10 +34795,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>79.31589866453214</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908068</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34863,16 +34865,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>446.7260637956006</v>
+        <v>35.25505765581499</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165066</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -34939,25 +34941,25 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>667.515206607857</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="M5" t="n">
-        <v>667.5152066078568</v>
+        <v>630.4048323684639</v>
       </c>
       <c r="N5" t="n">
-        <v>667.5152066078567</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>604.9339300505462</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>469.682203560008</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35009,19 +35011,19 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>630.4048323684639</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>30.91440664741867</v>
       </c>
       <c r="M6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35036,7 +35038,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>112.1603739174598</v>
+        <v>118.3563415094343</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35100,7 +35102,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
@@ -35109,7 +35111,7 @@
         <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>351.017064616507</v>
+        <v>204.0749767191114</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35173,11 +35175,11 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
+        <v>667.515206607857</v>
+      </c>
+      <c r="L8" t="n">
         <v>145.5272350047205</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
@@ -35185,7 +35187,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -35249,7 +35251,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>321.6407242930886</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35258,7 +35260,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35267,7 +35269,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>701.5799957097202</v>
+        <v>127.5393291307509</v>
       </c>
       <c r="L11" t="n">
-        <v>212.2804580932202</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>701.5799957097202</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,19 +35488,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>324.5237132641532</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35507,7 +35509,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>519.9105708963857</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35565,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35580,7 +35582,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35647,28 +35649,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>701.5799957097202</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
-        <v>212.2804580932202</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>363.3683445154879</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>701.5799957097202</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,19 +35725,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>324.5237132641532</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35744,7 +35746,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>519.9105708963857</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -35802,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35817,7 +35819,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35887,13 +35889,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>143.4079146352456</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>60.59188538505214</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35957,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>964.1848977889938</v>
+        <v>524.2002727610084</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35978,7 +35980,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>1.918706501888892</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36048,7 +36050,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645577</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
@@ -36121,28 +36123,28 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>282.6337518573328</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>852.0369646460714</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36215,13 +36217,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,13 +36278,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645586</v>
@@ -36291,13 +36293,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,10 +36363,10 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>60.59188538505123</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -36431,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>852.0369646460714</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -36452,13 +36454,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645586</v>
@@ -36528,13 +36530,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,16 +36597,16 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>928.8008214318197</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>583.0591140826364</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36613,10 +36615,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36680,22 +36682,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36832,28 +36834,28 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36929,10 +36931,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37069,7 +37071,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -37078,19 +37080,19 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>421.8632599168814</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -37154,22 +37156,22 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,16 +37305,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L35" t="n">
-        <v>644.2440447110093</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
@@ -37321,13 +37323,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
         <v>661.3192390158824</v>
@@ -37403,7 +37405,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37540,16 +37542,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>19.94667551886903</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>928.8008214318188</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
         <v>1137.102003471159</v>
@@ -37561,7 +37563,7 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37616,22 +37618,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37640,10 +37642,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37704,7 +37706,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080363</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645586</v>
@@ -37713,7 +37715,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>121.2143535006462</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>701.5799957097203</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1050.67235666819</v>
       </c>
       <c r="M41" t="n">
-        <v>701.5799957097203</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>701.5799957097202</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37935,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -37950,7 +37952,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>257.101999686301</v>
       </c>
       <c r="K44" t="n">
-        <v>701.5799957097202</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>701.5799957097202</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>701.5799957097202</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>62.71943809925233</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,19 +38098,19 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38172,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
@@ -38187,7 +38189,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_8_29.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_8_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>984027.5951196412</v>
+        <v>983502.4127506088</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>278692.0725916867</v>
+        <v>278692.0725916858</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7381071.178972602</v>
+        <v>7381071.178972603</v>
       </c>
     </row>
     <row r="11">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>424.2958575201043</v>
+        <v>360.6297460809444</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>38.52281350842403</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -718,13 +718,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>4.203262463343094</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>99.86488877445569</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
@@ -831,10 +831,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -867,19 +867,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>40.61929845517023</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>206.2745019997408</v>
+        <v>409.3275476299478</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
         <v>431.5506869772999</v>
@@ -907,13 +907,13 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1056,13 +1056,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>135.9608298160547</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
@@ -1119,10 +1119,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>122.1320530128181</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>104.5153960206944</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>32.36127543482664</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
@@ -1201,7 +1201,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1296,22 +1296,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>120.1472970361157</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>39.57637241135509</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -1390,7 +1390,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791316482</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800241</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
@@ -1429,7 +1429,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1438,7 +1438,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1539,13 +1539,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>35.34780583513513</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1609,25 +1609,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629688</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>286.238853011216</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.412621479131435</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561544</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1672,10 +1672,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>86.74508580040327</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>163.9353622244306</v>
@@ -1785,7 +1785,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>124.0599116349192</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1861,7 +1861,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011217</v>
       </c>
       <c r="I17" t="n">
         <v>0.4126214791313976</v>
@@ -1903,7 +1903,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655127</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
@@ -2004,7 +2004,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016117</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>148.8597651552951</v>
+        <v>50.38971918733976</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2064,7 +2064,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
@@ -2095,7 +2095,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629699</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
         <v>286.2388530112159</v>
@@ -2256,7 +2256,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>18.05677735225717</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2544,7 +2544,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>85.55329631630673</v>
       </c>
     </row>
     <row r="26">
@@ -2964,7 +2964,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>3.139541480022588</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3192,7 +3192,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
@@ -3204,7 +3204,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>24.62703520776627</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3274,7 +3274,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932887</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
         <v>423.5887552948843</v>
@@ -3328,7 +3328,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430777</v>
       </c>
       <c r="X35" t="n">
         <v>414.9510387864824</v>
@@ -3435,7 +3435,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>35.34780583513513</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
         <v>163.9353622244306</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3508,7 +3508,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773011</v>
       </c>
       <c r="E38" t="n">
         <v>429.4369973932878</v>
@@ -3675,10 +3675,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>43.48898701015406</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6486707394257</v>
+        <v>136.0564930766999</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800599</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -3751,7 +3751,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948859</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
         <v>397.3838530629687</v>
@@ -3760,7 +3760,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791308604</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3957,7 +3957,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>144.4937753855477</v>
+        <v>5.990622819018522</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3997,7 +3997,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791307478</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800294</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
         <v>217.8665548556918</v>
@@ -4152,7 +4152,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>157.6489550149833</v>
@@ -4197,13 +4197,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>234.1486472602376</v>
       </c>
       <c r="Y46" t="n">
-        <v>64.34965323462492</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1250.721030006719</v>
+        <v>484.0636759001414</v>
       </c>
       <c r="C2" t="n">
-        <v>822.1393557439876</v>
+        <v>119.7912051113087</v>
       </c>
       <c r="D2" t="n">
-        <v>790.2699749588362</v>
+        <v>87.92182432615731</v>
       </c>
       <c r="E2" t="n">
-        <v>751.3580421220443</v>
+        <v>58.18748352485655</v>
       </c>
       <c r="F2" t="n">
-        <v>323.4906125312521</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G2" t="n">
-        <v>323.4906125312521</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H2" t="n">
         <v>34.36045797446834</v>
@@ -4330,22 +4330,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K2" t="n">
+        <v>33.94366860160834</v>
+      </c>
+      <c r="L2" t="n">
+        <v>267.8706684926505</v>
+      </c>
+      <c r="M2" t="n">
+        <v>267.8706684926505</v>
+      </c>
+      <c r="N2" t="n">
+        <v>267.8706684926505</v>
+      </c>
+      <c r="O2" t="n">
         <v>687.9235674375537</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1107.976466382457</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1107.976466382457</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1107.976466382457</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1107.976466382457</v>
       </c>
       <c r="P2" t="n">
         <v>1107.976466382457</v>
@@ -4366,16 +4366,16 @@
         <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>1334.566480014244</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.368379531855</v>
+        <v>929.7110254252771</v>
       </c>
       <c r="X2" t="n">
-        <v>1277.225916111166</v>
+        <v>914.6089660449918</v>
       </c>
       <c r="Y2" t="n">
-        <v>1272.980196451223</v>
+        <v>910.3632463850493</v>
       </c>
     </row>
     <row r="3">
@@ -4406,31 +4406,31 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>358.5019935678207</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>778.554892512724</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>1198.607791457627</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="M3" t="n">
-        <v>1618.66069040253</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="N3" t="n">
-        <v>1618.66069040253</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="O3" t="n">
-        <v>1618.66069040253</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="P3" t="n">
-        <v>1618.66069040253</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="Q3" t="n">
-        <v>1697.183430080417</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R3" t="n">
         <v>1697.183430080417</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>851.7801684713901</v>
+        <v>481.2823514138177</v>
       </c>
       <c r="C4" t="n">
-        <v>851.7801684713901</v>
+        <v>481.2823514138177</v>
       </c>
       <c r="D4" t="n">
-        <v>685.9021756729128</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="E4" t="n">
-        <v>516.14417192365</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F4" t="n">
-        <v>339.4371178854062</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G4" t="n">
-        <v>173.8458429112338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H4" t="n">
         <v>33.94366860160834</v>
@@ -4488,22 +4488,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K4" t="n">
-        <v>308.7021231727439</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="L4" t="n">
-        <v>726.9120049407049</v>
+        <v>269.215608100497</v>
       </c>
       <c r="M4" t="n">
-        <v>726.9120049407049</v>
+        <v>689.2685070454004</v>
       </c>
       <c r="N4" t="n">
-        <v>761.8145120199619</v>
+        <v>1109.321405990304</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="P4" t="n">
         <v>1528.990655216085</v>
@@ -4515,25 +4515,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="U4" t="n">
-        <v>1656.153835681255</v>
+        <v>1013.629614209975</v>
       </c>
       <c r="V4" t="n">
-        <v>1369.198327551686</v>
+        <v>726.6741060804052</v>
       </c>
       <c r="W4" t="n">
-        <v>1097.171923137978</v>
+        <v>726.6741060804052</v>
       </c>
       <c r="X4" t="n">
-        <v>851.7801684713901</v>
+        <v>481.2823514138177</v>
       </c>
       <c r="Y4" t="n">
-        <v>851.7801684713901</v>
+        <v>481.2823514138177</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2073.031189930082</v>
+        <v>574.4223959157541</v>
       </c>
       <c r="C5" t="n">
-        <v>1634.888717113505</v>
+        <v>540.3203271395815</v>
       </c>
       <c r="D5" t="n">
-        <v>1198.97893228795</v>
+        <v>104.410542314026</v>
       </c>
       <c r="E5" t="n">
-        <v>1169.244591486649</v>
+        <v>74.67620151272524</v>
       </c>
       <c r="F5" t="n">
-        <v>741.3771618958569</v>
+        <v>50.84917596233704</v>
       </c>
       <c r="G5" t="n">
-        <v>339.9793305191208</v>
+        <v>50.84917596233704</v>
       </c>
       <c r="H5" t="n">
-        <v>50.8491759623371</v>
+        <v>50.84917596233704</v>
       </c>
       <c r="I5" t="n">
-        <v>50.4323865894771</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="J5" t="n">
-        <v>50.4323865894771</v>
+        <v>485.687074042395</v>
       </c>
       <c r="K5" t="n">
-        <v>50.4323865894771</v>
+        <v>1109.787858087173</v>
       </c>
       <c r="L5" t="n">
-        <v>674.5331706342562</v>
+        <v>1181.865694717422</v>
       </c>
       <c r="M5" t="n">
-        <v>1298.633954679035</v>
+        <v>1181.865694717422</v>
       </c>
       <c r="N5" t="n">
-        <v>1922.734738723814</v>
+        <v>1181.865694717422</v>
       </c>
       <c r="O5" t="n">
-        <v>2521.619329473855</v>
+        <v>1181.865694717422</v>
       </c>
       <c r="P5" t="n">
-        <v>2521.619329473855</v>
+        <v>1805.9664787622</v>
       </c>
       <c r="Q5" t="n">
-        <v>2521.619329473855</v>
+        <v>2352.465264720795</v>
       </c>
       <c r="R5" t="n">
-        <v>2521.619329473855</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="S5" t="n">
-        <v>2521.619329473855</v>
+        <v>2437.967455657689</v>
       </c>
       <c r="T5" t="n">
-        <v>2301.552102346894</v>
+        <v>2437.967455657689</v>
       </c>
       <c r="U5" t="n">
-        <v>2301.552102346894</v>
+        <v>2178.745152974706</v>
       </c>
       <c r="V5" t="n">
-        <v>2301.552102346894</v>
+        <v>1816.128202908532</v>
       </c>
       <c r="W5" t="n">
-        <v>2300.737051798331</v>
+        <v>1411.272748319566</v>
       </c>
       <c r="X5" t="n">
-        <v>2285.634992418046</v>
+        <v>1396.17068893928</v>
       </c>
       <c r="Y5" t="n">
-        <v>2281.389272758103</v>
+        <v>987.8845652389338</v>
       </c>
     </row>
     <row r="6">
@@ -4622,34 +4622,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>556.6041315807699</v>
+        <v>556.6041315807698</v>
       </c>
       <c r="C6" t="n">
-        <v>450.1476704174122</v>
+        <v>450.1476704174121</v>
       </c>
       <c r="D6" t="n">
-        <v>355.0573815639655</v>
+        <v>355.0573815639654</v>
       </c>
       <c r="E6" t="n">
-        <v>260.9369668909192</v>
+        <v>260.9369668909191</v>
       </c>
       <c r="F6" t="n">
-        <v>177.5531285070808</v>
+        <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>92.16803877326464</v>
+        <v>92.16803877326457</v>
       </c>
       <c r="H6" t="n">
-        <v>50.4323865894771</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="I6" t="n">
-        <v>76.4960597499347</v>
+        <v>76.49605974993464</v>
       </c>
       <c r="J6" t="n">
         <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>1025.155168760926</v>
+        <v>1025.155168760925</v>
       </c>
       <c r="L6" t="n">
         <v>1055.760431341871</v>
@@ -4685,13 +4685,13 @@
         <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>959.2612476424324</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>804.3938118813123</v>
+        <v>804.3938118813122</v>
       </c>
       <c r="Y6" t="n">
-        <v>677.9080326605331</v>
+        <v>677.908032660533</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>593.0357356940394</v>
+        <v>963.899272227186</v>
       </c>
       <c r="C7" t="n">
-        <v>455.701564162671</v>
+        <v>791.3375607104109</v>
       </c>
       <c r="D7" t="n">
-        <v>455.701564162671</v>
+        <v>625.4595679119336</v>
       </c>
       <c r="E7" t="n">
-        <v>455.701564162671</v>
+        <v>455.7015641626709</v>
       </c>
       <c r="F7" t="n">
-        <v>278.9945101244273</v>
+        <v>278.9945101244272</v>
       </c>
       <c r="G7" t="n">
-        <v>278.9945101244273</v>
+        <v>278.9945101244272</v>
       </c>
       <c r="H7" t="n">
-        <v>139.0923358148018</v>
+        <v>139.0923358148017</v>
       </c>
       <c r="I7" t="n">
-        <v>50.4323865894771</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="J7" t="n">
-        <v>137.012071754167</v>
+        <v>137.0120717541669</v>
       </c>
       <c r="K7" t="n">
         <v>411.7705263253025</v>
@@ -4743,34 +4743,34 @@
         <v>2151.392327657602</v>
       </c>
       <c r="P7" t="n">
-        <v>2353.426554609523</v>
+        <v>2498.899221627944</v>
       </c>
       <c r="Q7" t="n">
-        <v>2521.619329473855</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="R7" t="n">
-        <v>2500.201508179227</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="S7" t="n">
-        <v>2340.960139477223</v>
+        <v>2362.377960771848</v>
       </c>
       <c r="T7" t="n">
-        <v>2095.080693055679</v>
+        <v>2116.498514350304</v>
       </c>
       <c r="U7" t="n">
-        <v>1816.647692308784</v>
+        <v>1838.065513603409</v>
       </c>
       <c r="V7" t="n">
-        <v>1529.692184179214</v>
+        <v>1551.110005473839</v>
       </c>
       <c r="W7" t="n">
-        <v>1257.665779765506</v>
+        <v>1279.083601060131</v>
       </c>
       <c r="X7" t="n">
-        <v>1012.274025098918</v>
+        <v>1155.717890946173</v>
       </c>
       <c r="Y7" t="n">
-        <v>784.8543544130266</v>
+        <v>1155.717890946173</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>648.8602641703436</v>
+        <v>1786.86986531245</v>
       </c>
       <c r="C8" t="n">
-        <v>543.2891570787331</v>
+        <v>1348.727392495873</v>
       </c>
       <c r="D8" t="n">
-        <v>511.4197762935816</v>
+        <v>912.8176076703178</v>
       </c>
       <c r="E8" t="n">
-        <v>481.6854354922808</v>
+        <v>479.0428628286129</v>
       </c>
       <c r="F8" t="n">
-        <v>53.81800590148855</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G8" t="n">
         <v>53.81800590148855</v>
@@ -4810,13 +4810,13 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
         <v>1293.567921177998</v>
@@ -4837,19 +4837,19 @@
         <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>2670.060826431428</v>
+        <v>2637.372669426552</v>
       </c>
       <c r="V8" t="n">
-        <v>2307.443876365254</v>
+        <v>2637.372669426552</v>
       </c>
       <c r="W8" t="n">
-        <v>1902.588421776288</v>
+        <v>2232.517214837585</v>
       </c>
       <c r="X8" t="n">
-        <v>1483.445958355598</v>
+        <v>1813.374751416896</v>
       </c>
       <c r="Y8" t="n">
-        <v>1075.159834655251</v>
+        <v>1809.129031756954</v>
       </c>
     </row>
     <row r="9">
@@ -4892,13 +4892,13 @@
         <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
         <v>1058.729261281022</v>
@@ -4944,19 +4944,19 @@
         <v>568.9155211348376</v>
       </c>
       <c r="D10" t="n">
-        <v>403.0375283363603</v>
+        <v>447.554615037751</v>
       </c>
       <c r="E10" t="n">
-        <v>233.2795245870976</v>
+        <v>447.554615037751</v>
       </c>
       <c r="F10" t="n">
-        <v>193.303390838254</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>193.303390838254</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>53.40121652862856</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
         <v>53.40121652862856</v>
@@ -5032,10 +5032,10 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G11" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H11" t="n">
-        <v>102.6776296436399</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I11" t="n">
         <v>102.2608402707796</v>
@@ -5044,28 +5044,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K11" t="n">
-        <v>228.524776110223</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L11" t="n">
-        <v>1303.584742363082</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M11" t="n">
-        <v>2460.632577573633</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N11" t="n">
-        <v>3586.36356101008</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O11" t="n">
-        <v>4566.543227580387</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P11" t="n">
-        <v>4566.543227580387</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q11" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R11" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S11" t="n">
         <v>5029.390139722817</v>
@@ -5120,25 +5120,25 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L12" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M12" t="n">
-        <v>1327.049347523737</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
         <v>1648.327823655249</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>811.7546776883914</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C13" t="n">
-        <v>639.1929661716164</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D13" t="n">
-        <v>473.3149733731391</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E13" t="n">
-        <v>303.5569696238763</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F13" t="n">
-        <v>303.5569696238763</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G13" t="n">
-        <v>137.965694649704</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H13" t="n">
         <v>102.2608402707796</v>
@@ -5226,25 +5226,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T13" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U13" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V13" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W13" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X13" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y13" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="14">
@@ -5266,13 +5266,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771596</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
         <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>102.6776296436397</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
         <v>102.2608402707796</v>
@@ -5287,16 +5287,16 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>3603.973621145286</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
-        <v>3963.708282215619</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>4943.887948785925</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
-        <v>4943.887948785925</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
         <v>4943.887948785925</v>
@@ -5305,10 +5305,10 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
         <v>4550.100609912873</v>
@@ -5317,13 +5317,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X14" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L15" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M15" t="n">
-        <v>1327.049347523737</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N15" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O15" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P15" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
         <v>1648.327823655249</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>845.683004334921</v>
+        <v>915.9519976190925</v>
       </c>
       <c r="C16" t="n">
-        <v>673.1212928181459</v>
+        <v>743.3902861023174</v>
       </c>
       <c r="D16" t="n">
-        <v>673.1212928181459</v>
+        <v>577.5122933038401</v>
       </c>
       <c r="E16" t="n">
-        <v>673.1212928181459</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="F16" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G16" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H16" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
         <v>102.2608402707796</v>
@@ -5463,25 +5463,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2593.607408118105</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T16" t="n">
-        <v>2347.72796169656</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U16" t="n">
-        <v>2069.294960949665</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V16" t="n">
-        <v>1782.339452820096</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W16" t="n">
-        <v>1510.313048406387</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X16" t="n">
-        <v>1264.9212937398</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y16" t="n">
-        <v>1037.501623053908</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H17" t="n">
         <v>102.6776296436396</v>
@@ -5521,10 +5521,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2528.913654892426</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N17" t="n">
         <v>2588.899621423628</v>
@@ -5551,16 +5551,16 @@
         <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>426.819165236992</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5649,7 +5649,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1092.659051657341</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="C19" t="n">
         <v>920.0973401405612</v>
@@ -5685,40 +5685,40 @@
         <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113127</v>
       </c>
       <c r="O19" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P19" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q19" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="S19" t="n">
-        <v>2568.557051026816</v>
+        <v>2668.021743923745</v>
       </c>
       <c r="T19" t="n">
-        <v>2322.677604605271</v>
+        <v>2422.1422975022</v>
       </c>
       <c r="U19" t="n">
-        <v>2044.244603858377</v>
+        <v>2143.709296755305</v>
       </c>
       <c r="V19" t="n">
-        <v>1757.289095728807</v>
+        <v>1856.753788625736</v>
       </c>
       <c r="W19" t="n">
-        <v>1757.289095728807</v>
+        <v>1584.727384212028</v>
       </c>
       <c r="X19" t="n">
-        <v>1511.89734106222</v>
+        <v>1339.33562954544</v>
       </c>
       <c r="Y19" t="n">
-        <v>1284.477670376328</v>
+        <v>1111.915958859548</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>3007.131363532228</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N20" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L21" t="n">
-        <v>945.7774352703902</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M21" t="n">
-        <v>945.7774352703902</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N21" t="n">
-        <v>945.7774352703902</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O21" t="n">
-        <v>945.7774352703902</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P21" t="n">
-        <v>1765.500601749588</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q21" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>970.9960463903949</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>798.4343348736198</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>632.5563420751425</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>462.7983383258798</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>286.091284287636</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>120.5000093134636</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
         <v>102.2608402707796</v>
@@ -5937,25 +5937,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5995,10 +5995,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1431.851786213076</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6065,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>426.8553649527958</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6174,22 +6174,22 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y25" t="n">
         <v>1144.575496066698</v>
@@ -6232,22 +6232,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L26" t="n">
-        <v>1021.773653488281</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M26" t="n">
-        <v>2178.821488698832</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N26" t="n">
-        <v>3304.552472135279</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O26" t="n">
-        <v>4284.732138705585</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6302,31 +6302,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6472,19 +6472,19 @@
         <v>2011.671098481817</v>
       </c>
       <c r="M29" t="n">
-        <v>3168.718933692368</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N29" t="n">
-        <v>4294.449917128814</v>
+        <v>3137.402081918264</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.042013538981</v>
+        <v>4117.581748488571</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.042013538981</v>
+        <v>4945.891623321967</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.042013538981</v>
+        <v>4945.891623321967</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C30" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D30" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E30" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F30" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G30" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H30" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>4455.130296812566</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L30" t="n">
-        <v>4455.130296812566</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M30" t="n">
-        <v>4455.130296812566</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N30" t="n">
-        <v>4455.130296812566</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O30" t="n">
-        <v>4455.130296812566</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P30" t="n">
-        <v>4455.130296812566</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q30" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S30" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T30" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U30" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V30" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W30" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X30" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y30" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="31">
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>617.7751448769883</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>451.897152078511</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>282.1391483292483</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>105.4320942910045</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
         <v>102.2608402707796</v>
@@ -6645,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6700,28 +6700,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1850.083528321676</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M32" t="n">
-        <v>3007.131363532227</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N32" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6782,19 +6782,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
         <v>1107.588885023173</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>469.4349624223536</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>292.7279083841098</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>127.1366334099375</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6885,25 +6885,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E35" t="n">
         <v>1221.073045167952</v>
@@ -6937,28 +6937,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>3007.131363532228</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R35" t="n">
         <v>5113.042013538981</v>
@@ -6979,10 +6979,10 @@
         <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7019,22 +7019,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L36" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M36" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N36" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O36" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P36" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q36" t="n">
         <v>1648.327823655249</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>811.7546776883914</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>639.1929661716164</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>473.3149733731391</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>303.5569696238763</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
         <v>267.852115244952</v>
@@ -7122,25 +7122,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
         <v>1654.847790009657</v>
@@ -7162,64 +7162,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="K38" t="n">
-        <v>102.2608402707796</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="L38" t="n">
-        <v>1021.77365348828</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M38" t="n">
-        <v>2178.821488698831</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N38" t="n">
-        <v>3304.552472135278</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>4284.732138705584</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>970.9960463903903</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>798.4343348736153</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>632.556342075138</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>462.7983383258752</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>286.0912842876314</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
         <v>102.2608402707796</v>
@@ -7338,46 +7338,46 @@
         <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>881.8088617745609</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
-        <v>1341.292728955474</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>1783.551532113118</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
-        <v>2203.2207813389</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>2550.727675309242</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
-        <v>2718.920450173574</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173574</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2718.920450173574</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2473.04100375203</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U40" t="n">
-        <v>2194.608003005135</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>1907.652494875565</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1635.626090461857</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1390.234335795269</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1162.814665109378</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771589</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004228</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
-        <v>102.6776296436391</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
         <v>102.2608402707796</v>
@@ -7417,13 +7417,13 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>2412.031452783383</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>3569.079287993934</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>3569.079287993934</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
         <v>3569.079287993934</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>952.7568773477108</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C43" t="n">
-        <v>780.1951658309357</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D43" t="n">
-        <v>614.3171730324584</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E43" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F43" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G43" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H43" t="n">
         <v>102.2608402707796</v>
@@ -7605,16 +7605,16 @@
         <v>2035.366634303136</v>
       </c>
       <c r="V43" t="n">
-        <v>1889.413325832886</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W43" t="n">
-        <v>1617.386921419177</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X43" t="n">
-        <v>1371.99516675259</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y43" t="n">
-        <v>1144.575496066698</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2528.900047651788</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>2090.757574835211</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771588</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004227</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H44" t="n">
-        <v>102.677629643639</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I44" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>356.7918199602176</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>356.7918199602176</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>1431.851786213077</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.485741837042</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7730,16 +7730,16 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
         <v>1107.588885023173</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>952.7568773477108</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C46" t="n">
-        <v>780.1951658309357</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D46" t="n">
-        <v>614.3171730324584</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E46" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F46" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G46" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H46" t="n">
         <v>102.2608402707796</v>
@@ -7830,28 +7830,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T46" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U46" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V46" t="n">
-        <v>1726.993304878938</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W46" t="n">
-        <v>1454.96690046523</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="X46" t="n">
-        <v>1209.575145798642</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y46" t="n">
-        <v>1144.575496066698</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
   </sheetData>
@@ -7978,25 +7978,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K2" t="n">
-        <v>236.2898988798406</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="P2" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -8054,19 +8054,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="M3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8078,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>79.31589866453214</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8136,25 +8136,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>150.1941962971706</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>35.25505765581499</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821538</v>
@@ -8215,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="L5" t="n">
-        <v>630.4048323684638</v>
+        <v>72.80589558611018</v>
       </c>
       <c r="M5" t="n">
-        <v>630.4048323684639</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>630.4048323684638</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>604.9339300505462</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8297,10 +8297,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>630.4048323684639</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="L6" t="n">
-        <v>30.91440664741867</v>
+        <v>30.91440664741958</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8391,10 +8391,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>204.0749767191114</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>22.94960388475511</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8458,16 +8458,16 @@
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>145.5272350047205</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -8540,16 +8540,16 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -8692,7 +8692,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>127.5393291307509</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
@@ -8710,7 +8710,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8768,19 +8768,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>324.5237132641532</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8935,19 +8935,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>363.3683445154879</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
         <v>170.8626916697543</v>
@@ -9005,19 +9005,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>324.5237132641532</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9169,13 +9169,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
-        <v>60.59188538505214</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9239,16 +9239,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
-        <v>524.2002727610084</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,16 +9476,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L21" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9643,13 +9643,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>60.59188538505123</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9713,16 +9713,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>301.546314668241</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L24" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9880,7 +9880,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>928.8008214318197</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
@@ -9892,13 +9892,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>508.6956131767483</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,22 +9950,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10120,22 +10120,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>168.8387779969835</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10193,7 +10193,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -10348,16 +10348,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N32" t="n">
         <v>1137.102003471159</v>
@@ -10366,13 +10366,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10430,7 +10430,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10667,7 +10667,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -10822,13 +10822,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>928.8008214318188</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
@@ -10843,10 +10843,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11065,16 +11065,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>1050.67235666819</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11296,19 +11296,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>257.101999686301</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11378,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11390,7 +11390,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -23427,13 +23427,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>103.1553467313941</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23466,7 +23466,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>103.155346731394</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>33.58904338006411</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>8.789189859688207</v>
+        <v>107.2592358276436</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>120.4463752142721</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24177,7 +24177,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
     </row>
     <row r="26">
@@ -24852,7 +24852,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>138.5031525665292</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>113.876117358763</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25125,7 +25125,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25323,7 +25323,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25563,10 +25563,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>120.4463752142765</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25599,13 +25599,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>139.5921776627261</v>
+        <v>278.0953302292553</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26085,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>8.789189859684058</v>
       </c>
       <c r="Y46" t="n">
-        <v>160.7958207444079</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>647540.0091784663</v>
+        <v>647540.0091784664</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>647540.0091784664</v>
+        <v>647540.0091784666</v>
       </c>
     </row>
     <row r="8">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>647540.0091784664</v>
+        <v>647540.0091784663</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>647540.0091784663</v>
+        <v>647540.0091784664</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>647540.0091784664</v>
+        <v>647540.0091784663</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>388706.8069205462</v>
+        <v>388706.8069205461</v>
       </c>
       <c r="C2" t="n">
-        <v>388706.8069205462</v>
+        <v>388706.8069205461</v>
       </c>
       <c r="D2" t="n">
         <v>388706.8069205462</v>
       </c>
       <c r="E2" t="n">
+        <v>381971.7484995804</v>
+      </c>
+      <c r="F2" t="n">
         <v>381971.7484995805</v>
-      </c>
-      <c r="F2" t="n">
-        <v>381971.7484995804</v>
       </c>
       <c r="G2" t="n">
         <v>381971.7484995805</v>
@@ -26337,25 +26337,25 @@
         <v>381971.7484995804</v>
       </c>
       <c r="J2" t="n">
-        <v>381971.7484995803</v>
+        <v>381971.7484995804</v>
       </c>
       <c r="K2" t="n">
+        <v>381971.7484995804</v>
+      </c>
+      <c r="L2" t="n">
         <v>381971.7484995805</v>
-      </c>
-      <c r="L2" t="n">
-        <v>381971.7484995804</v>
       </c>
       <c r="M2" t="n">
         <v>381971.7484995804</v>
       </c>
       <c r="N2" t="n">
+        <v>381971.7484995805</v>
+      </c>
+      <c r="O2" t="n">
+        <v>381971.7484995805</v>
+      </c>
+      <c r="P2" t="n">
         <v>381971.7484995804</v>
-      </c>
-      <c r="O2" t="n">
-        <v>381971.7484995804</v>
-      </c>
-      <c r="P2" t="n">
-        <v>381971.7484995803</v>
       </c>
     </row>
     <row r="3">
@@ -26368,10 +26368,10 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>66587.76789501625</v>
+        <v>66587.76789501596</v>
       </c>
       <c r="D3" t="n">
-        <v>11527.59554998269</v>
+        <v>11527.59554998296</v>
       </c>
       <c r="E3" t="n">
         <v>182355.1092210498</v>
@@ -26392,10 +26392,10 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>53045.85463877258</v>
+        <v>53045.85463877235</v>
       </c>
       <c r="L3" t="n">
-        <v>9392.301726622249</v>
+        <v>9392.301726622472</v>
       </c>
       <c r="M3" t="n">
         <v>152200.1709379877</v>
@@ -26420,7 +26420,7 @@
         <v>218225.2660325691</v>
       </c>
       <c r="C4" t="n">
-        <v>187964.4997909369</v>
+        <v>187964.499790937</v>
       </c>
       <c r="D4" t="n">
         <v>182515.9822733277</v>
@@ -26450,10 +26450,10 @@
         <v>108317.3178284629</v>
       </c>
       <c r="M4" t="n">
-        <v>108317.3178284628</v>
+        <v>108317.3178284629</v>
       </c>
       <c r="N4" t="n">
-        <v>108317.3178284628</v>
+        <v>108317.3178284629</v>
       </c>
       <c r="O4" t="n">
         <v>108317.3178284629</v>
@@ -26472,7 +26472,7 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>71956.21380800259</v>
+        <v>71956.21380800255</v>
       </c>
       <c r="D5" t="n">
         <v>74212.5245617577</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-31134.54790895519</v>
+        <v>-31134.54790895528</v>
       </c>
       <c r="C6" t="n">
-        <v>62198.3254265904</v>
+        <v>62198.32542659061</v>
       </c>
       <c r="D6" t="n">
-        <v>120450.7045354781</v>
+        <v>120450.7045354778</v>
       </c>
       <c r="E6" t="n">
-        <v>13581.0828442754</v>
+        <v>13557.85850489258</v>
       </c>
       <c r="F6" t="n">
-        <v>195936.192065325</v>
+        <v>195912.9677259424</v>
       </c>
       <c r="G6" t="n">
-        <v>195936.1920653251</v>
+        <v>195912.9677259424</v>
       </c>
       <c r="H6" t="n">
-        <v>195936.192065325</v>
+        <v>195912.9677259423</v>
       </c>
       <c r="I6" t="n">
-        <v>195936.192065325</v>
+        <v>195912.9677259423</v>
       </c>
       <c r="J6" t="n">
-        <v>84921.72672033467</v>
+        <v>84898.50238095218</v>
       </c>
       <c r="K6" t="n">
-        <v>142890.3374265525</v>
+        <v>142867.11308717</v>
       </c>
       <c r="L6" t="n">
-        <v>186543.8903387028</v>
+        <v>186520.66599932</v>
       </c>
       <c r="M6" t="n">
-        <v>43736.02112733736</v>
+        <v>43712.7967879546</v>
       </c>
       <c r="N6" t="n">
-        <v>195936.192065325</v>
+        <v>195912.9677259424</v>
       </c>
       <c r="O6" t="n">
-        <v>195936.192065325</v>
+        <v>195912.9677259424</v>
       </c>
       <c r="P6" t="n">
-        <v>195936.1920653249</v>
+        <v>195912.9677259423</v>
       </c>
     </row>
   </sheetData>
@@ -26792,7 +26792,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>630.4048323684638</v>
+        <v>630.404832368463</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
@@ -27014,10 +27014,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>206.1089748483595</v>
+        <v>206.1089748483586</v>
       </c>
       <c r="D4" t="n">
-        <v>37.11037423939314</v>
+        <v>37.11037423939402</v>
       </c>
       <c r="E4" t="n">
         <v>610.7452967768884</v>
@@ -27038,10 +27038,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483595</v>
+        <v>206.1089748483586</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939314</v>
+        <v>37.11037423939402</v>
       </c>
       <c r="M4" t="n">
         <v>610.7452967768884</v>
@@ -27260,10 +27260,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483595</v>
+        <v>206.1089748483586</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939314</v>
+        <v>37.11037423939402</v>
       </c>
       <c r="M4" t="n">
         <v>610.7452967768884</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>9.465190568306582</v>
+        <v>73.13130200746656</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>390.9141838848637</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27438,13 +27438,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>400</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27542,7 +27542,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>64.35432409603683</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27551,10 +27551,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -27587,19 +27587,19 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>235.0293722842555</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>215.7620727803179</v>
+        <v>12.7090271501109</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27627,13 +27627,13 @@
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,13 +27776,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>34.87526458555263</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27839,10 +27839,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>120.8057841071036</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -27852,22 +27852,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>329.2456520677165</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>400</v>
       </c>
-      <c r="E8" t="n">
-        <v>400</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
@@ -27909,10 +27909,10 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>224.2688042213266</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28016,22 +28016,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>44.07191583437682</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>135.3636110865062</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28581,7 +28581,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>-4.484950034982556e-13</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28757,7 +28757,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>3.770613451100265e-12</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K2" t="n">
-        <v>236.2898988798406</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="P2" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -34774,19 +34774,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="M3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34798,10 +34798,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>79.31589866453214</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,25 +34856,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>150.1941962971706</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>35.25505765581499</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="L5" t="n">
-        <v>630.4048323684638</v>
+        <v>72.80589558611018</v>
       </c>
       <c r="M5" t="n">
-        <v>630.4048323684639</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>630.4048323684638</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>604.9339300505462</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35011,16 +35011,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>630.4048323684639</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="L6" t="n">
-        <v>30.91440664741867</v>
+        <v>30.91440664741958</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35038,7 +35038,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094343</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35111,10 +35111,10 @@
         <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>204.0749767191114</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>22.94960388475511</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35178,16 +35178,16 @@
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>145.5272350047205</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -35260,16 +35260,16 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -35412,7 +35412,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>127.5393291307509</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
@@ -35430,7 +35430,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,19 +35488,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>324.5237132641532</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35509,7 +35509,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35655,19 +35655,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>363.3683445154879</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
         <v>170.862691669754</v>
@@ -35725,19 +35725,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>324.5237132641532</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35746,7 +35746,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -35889,13 +35889,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
-        <v>60.59188538505214</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
-        <v>524.2002727610084</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35980,13 +35980,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36053,10 +36053,10 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N19" t="n">
-        <v>446.7260637956006</v>
+        <v>446.7260637956044</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L21" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36217,13 +36217,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36363,13 +36363,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
-        <v>60.59188538505123</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>301.546314668241</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L24" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -36454,13 +36454,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36600,7 +36600,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>928.8008214318197</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
@@ -36612,13 +36612,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>508.6956131767483</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,22 +36670,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36694,10 +36694,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36840,22 +36840,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831382</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>168.8387779969835</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36931,7 +36931,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132072</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -37068,16 +37068,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N32" t="n">
         <v>1137.102003471159</v>
@@ -37086,13 +37086,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37165,7 +37165,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37405,7 +37405,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37542,13 +37542,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>928.8008214318188</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
@@ -37563,10 +37563,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37706,7 +37706,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080363</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645586</v>
@@ -37715,7 +37715,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
@@ -37785,16 +37785,16 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
-        <v>1050.67235666819</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458546</v>
@@ -38016,19 +38016,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>257.101999686301</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38098,7 +38098,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38110,7 +38110,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
